--- a/outputs/SORs/SOR Testing_Corp RBS.xlsx
+++ b/outputs/SORs/SOR Testing_Corp RBS.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -1137,7 +1137,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1208,7 +1208,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1279,7 +1279,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_Corp RBS.xlsx
+++ b/outputs/SORs/SOR Testing_Corp RBS.xlsx
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0.0833333333333333</v>
@@ -1478,9 +1478,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="n">
         <v>1</v>
       </c>

--- a/outputs/SORs/SOR Testing_Corp RBS.xlsx
+++ b/outputs/SORs/SOR Testing_Corp RBS.xlsx
@@ -1137,7 +1137,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>1.4286</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1208,7 +1208,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>1.4286</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1279,7 +1279,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>1.4286</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1303,37 +1303,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.285716666666667</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.25</v>
+        <v>0.85715</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.285716666666667</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.285716666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.285716666666667</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.25</v>
+        <v>0.85715</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.285716666666667</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.285716666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.285716666666667</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.25</v>
+        <v>0.85715</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>1</v>
+        <v>3.4286</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_Corp RBS.xlsx
+++ b/outputs/SORs/SOR Testing_Corp RBS.xlsx
@@ -1137,7 +1137,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1.4286</v>
+        <v>1.5385</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1208,7 +1208,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1.4286</v>
+        <v>1.5385</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1279,7 +1279,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>1.4286</v>
+        <v>1.5385</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1303,37 +1303,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.285716666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.85715</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.285716666666667</v>
+        <v>0.256416666666667</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.285716666666667</v>
+        <v>0.256416666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.285716666666667</v>
+        <v>0.256416666666667</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.85715</v>
+        <v>0.76925</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.285716666666667</v>
+        <v>0.256416666666667</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.285716666666667</v>
+        <v>0.256416666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.285716666666667</v>
+        <v>0.256416666666667</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.85715</v>
+        <v>0.76925</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>3.4286</v>
+        <v>3.077</v>
       </c>
     </row>
     <row r="5">
@@ -1479,12 +1479,8 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="3" t="n">
         <v>1</v>
       </c>

--- a/outputs/SORs/SOR Testing_Corp RBS.xlsx
+++ b/outputs/SORs/SOR Testing_Corp RBS.xlsx
@@ -1309,31 +1309,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.256416666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.256416666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.256416666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.76925</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.256416666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.256416666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.256416666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.76925</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>3.077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1481,9 +1481,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3" t="n">
         <v>1</v>
       </c>
